--- a/medicine/Soins infirmiers et profession infirmière/Matelas_immobilisateur_à_dépression/Matelas_immobilisateur_à_dépression.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Matelas_immobilisateur_à_dépression/Matelas_immobilisateur_à_dépression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matelas immobilisateur à dépression (MID) est un dispositif permettant d'immobiliser entièrement une personne, et en particulier la hanche et la colonne vertébrale. Il est aussi utilisé pour conditionner les grands brûlés, afin de limiter leurs mouvements (qui sont douloureux) et de les isoler du froid, ainsi que les patients lourdement appareillés. Il a été inventé par Jean Loeb et Charles Haeberlé, qui lui ont donné le nom de « matelas coquille ».
 Il se compose d'une enveloppe de toile étanche, lavable et désinfectable, qui contient des billes de polystyrène, et d'une vanne. Lorsque le matelas est sous air, les billes bougent librement et on peut mouler le matelas autour de la victime. Lorsque l'on aspire l'air avec une pompe, la pression atmosphérique plaque les billes les unes contre les autres et le matelas devient rigide.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Indication pse2 p319 06-2018 :
 Le matelas immobilisateur à dépression (MID) est utilisé pour immobiliser la colonne vertébrale d’une 
@@ -521,7 +535,7 @@
 Le MID permet aussi d’immobiliser les victimes dans la position adaptée à leur détresse (demi-assise pour 
 une détresse respiratoire).
 Le MID doit rester en place pour le transfert sur le brancard à l'hôpital.
-Le matelas à dépression est le golden standard de l'immobilisation préhospitalière lors de la prise en charge d'un patient traumatisé, prenant le dessus sur le plan dur, dont les indications diminuent. En effet au fil des années, de plus en plus d'études tendent à démontrer la supériorité de l'immobilisation dans un MID par rapport à l'immobilisation sur un plan dur[1].
+Le matelas à dépression est le golden standard de l'immobilisation préhospitalière lors de la prise en charge d'un patient traumatisé, prenant le dessus sur le plan dur, dont les indications diminuent. En effet au fil des années, de plus en plus d'études tendent à démontrer la supériorité de l'immobilisation dans un MID par rapport à l'immobilisation sur un plan dur.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avant de l'utiliser, il faut répartir les billes qui ont pu se tasser durant le transport ; une partie pauvre en bille ne sera pas suffisamment rigide. On peut aussi volontairement concentrer les billes à un endroit afin que cette partie là soit plus rigide ; par exemple, si l'on veut maintenir une personne à plat-dos les cuisses fléchies, on peut concentrer les billes au niveau du bassin pour permettre de supporter le poids.
 Le MID est posé sur un brancard, un drap ou un plan dur, afin de le protéger des aspérités du sol : une fois déchiré, on ne peut plus faire le vide. Les sangles du MID sont glissées entre celui-ci et le brancard afin qu'elles ne gênent pas lors de la manœuvre de relevage.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Conditionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En cas de suspicion de traumatisme du rachis, si nécessaire on posera un collier cervical voir recommandation pse 12-2022. Les pieds de la victime doivent être du côté de la vanne. Pour le confort et l'hygiène de la victime, on placera un drap sur le « coquille ».
 On peut relever la victime directement sur le MID &amp; brancard, en utilisant une cuillère  ou un pont amélioré (en raison des traumatismes supposés), ou éventuellement un pont néerlandais (si aucune autre solution n'est possible, ou bien, si l'état le permet). Si l'on fait un pont néerlandais, le ou les secouristes qui enjambent le brancard font bien attention à replier le MID pour poser le pied sur la hampe du brancard, et non pas sur la toile du matelas. Si l'on utilise un plan dur ou un brancard cuillère comme intermédiaire de relevage, il faudra ensuite soulever la victime (avec un pont amélioré) pour retirer la planche, ou retirer la cuillère : en effet, ils gêneront le moulage et feront alors perdre une grande partie de son efficacité au MID. Cependant, dans ce cas-là, on peut aussi envisager une immobilisation directement sur le plan dur (calage latéral de tête et sanglage), bien que cette immobilisation ne soit plus la première recommandée.
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MID est muni de poignées qui facilite sa manutention. Toutefois, la rigidité longitudinale n'est pas suffisante : le poids du corps et l'effet de levier font fléchir le matelas en son centre, ce qui est à proscrire en cas de suspicion de traumatisme du rachis. Donc on placera donc toujours la « coquille » sur un brancard (même à toile souple[note 1]) : le matelas n'est alors plus en traction sur les poignées, mais posé. Pour de courtes manutentions, on peut se contenter d'utiliser les poignées en employant six équipiers : deux équipiers tenant les poignées du centre, cela évite la flexion. On peut aussi envisager une manutention à quatre équipiers, les équipiers se faisant face et tenant la poignée d'une extrémité d'une main, et une poignée centrale de l'autre.
 Lorsqu'il n'y a pas de notion de traumatisme rachidien, on peut se servir du coquille comme portoir dans les endroits peu praticables comme les escaliers en colimaçon. Il permet une inclinaison sans risque de glisser et sans nécessité de sangler la victime (en dehors des sangles du matelas lui-même), avec un grand confort et une sensation de sécurité pour la victime (elle est « enveloppée »).
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +689,9 @@
           <t>Déconditionnement à l'arrivée au service des urgences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MID est radiotransparent, on peut donc faire une radio du rachis et du bassin avec la victime dans le MID. Mais arrivera un moment où la victime devra être déconditionnée pour recevoir les soins hospitaliers.
 Une technique possible pour le déconditionnement consiste
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Matelas_immobilisateur_%C3%A0_d%C3%A9pression</t>
+          <t>Matelas_immobilisateur_à_dépression</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Avantages et inconvénients</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MID est fragile (risque de déchirure), encombrant et lourd à transporter. Par ailleurs, lorsqu'une victime est relevée avec une planche, il impose une manipulation supplémentaire pour retirer la planche.
 En revanche, le MID offre un meilleur confort que la planche, une bonne isolation thermique, et c'est le seul dispositif permettant d'immobiliser la hanche (avec la ceinture pelvienne). L'immobilisation se faisant sans compression, on réduit le risque de douleur et d'aggravation de traumatisme.
